--- a/設計書_ruby.xlsx
+++ b/設計書_ruby.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="14" r:id="rId1"/>
     <sheet name="新規作成" sheetId="11" r:id="rId2"/>
-    <sheet name="GIT" sheetId="3" r:id="rId3"/>
-    <sheet name="git svn" sheetId="4" r:id="rId4"/>
-    <sheet name="GitCmd" sheetId="5" r:id="rId5"/>
-    <sheet name="HEAD" sheetId="6" r:id="rId6"/>
-    <sheet name="Git 用語" sheetId="7" r:id="rId7"/>
-    <sheet name="GitHub" sheetId="8" r:id="rId8"/>
-    <sheet name="VIM" sheetId="9" r:id="rId9"/>
-    <sheet name="【BJP】モジュール間" sheetId="2" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
-    <sheet name="作例" sheetId="12" r:id="rId12"/>
-    <sheet name="Link一覧" sheetId="13" r:id="rId13"/>
-    <sheet name="Ruby" sheetId="10" r:id="rId14"/>
+    <sheet name="GIT" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="git svn" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="GitCmd" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="HEAD" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Git 用語" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="GitHub" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="VIM" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="【BJP】モジュール間" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId11"/>
+    <sheet name="作例" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Link一覧" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Ruby" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -4166,9 +4166,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4176,24 +4173,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4202,12 +4191,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4221,14 +4224,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4470,15 +4470,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="18087975"/>
+          <a:ext cx="0" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4551,10 +4601,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4563,8 +4613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="16897350"/>
-          <a:ext cx="11666883" cy="1200150"/>
+          <a:off x="2057400" y="17364075"/>
+          <a:ext cx="13049250" cy="4305300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4621,13 +4671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4637,8 +4687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="18907125"/>
-          <a:ext cx="11666883" cy="1209675"/>
+          <a:off x="2057400" y="22336125"/>
+          <a:ext cx="13030200" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4695,13 +4745,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4770,13 +4820,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7718,13 +7768,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7776,13 +7826,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7827,13 +7877,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7900,13 +7950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7958,13 +8008,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8016,13 +8066,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8067,13 +8117,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8140,13 +8190,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8213,13 +8263,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8286,13 +8336,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8344,13 +8394,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8395,13 +8445,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8453,13 +8503,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8511,13 +8561,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8562,13 +8612,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8613,13 +8663,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8686,13 +8736,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8775,13 +8825,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8833,13 +8883,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9010,189 +9060,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>687456</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5499652" y="17476304"/>
-          <a:ext cx="2062369" cy="500269"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Workbook</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>687456</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8249478" y="17476304"/>
-          <a:ext cx="2062369" cy="500269"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Worksheet</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10999304" y="17476304"/>
-          <a:ext cx="2062370" cy="500269"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Range</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9242,117 +9118,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>36444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>77028</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="直線矢印コネクタ 144"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6884090" y="18208487"/>
-          <a:ext cx="0" cy="562389"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>36444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>86553</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線矢印コネクタ 145"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7571547" y="18208487"/>
-          <a:ext cx="0" cy="571914"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9404,13 +9178,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9455,13 +9229,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9520,13 +9294,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9578,13 +9352,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9629,13 +9403,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9699,6 +9473,1047 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1656</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="18564225"/>
+          <a:ext cx="2059056" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Workbook[1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1656</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="18564225"/>
+          <a:ext cx="2059056" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Workbook[2]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="19421475"/>
+          <a:ext cx="2047875" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Worksheet[1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="19421475"/>
+          <a:ext cx="2047875" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Worksheet[2]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="20278725"/>
+          <a:ext cx="2057400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Range[1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="20278725"/>
+          <a:ext cx="2057400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Range[2]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線コネクタ 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="19078575"/>
+          <a:ext cx="1700213" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線コネクタ 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="19926300"/>
+          <a:ext cx="1700213" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線コネクタ 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="18202275"/>
+          <a:ext cx="1700213" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="19421475"/>
+          <a:ext cx="2047875" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Worksheet[2]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線コネクタ 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="154" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="19069050"/>
+          <a:ext cx="3071813" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1656</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="図形 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="3"/>
+          <a:endCxn id="130" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7545456" y="18811875"/>
+          <a:ext cx="5832407" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="20278725"/>
+          <a:ext cx="2057400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Range[1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="20278725"/>
+          <a:ext cx="2057400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Range[2]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="19916775"/>
+          <a:ext cx="1700213" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直線コネクタ 151"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="139" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="19650075"/>
+          <a:ext cx="4467225" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="19421475"/>
+          <a:ext cx="2047875" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Worksheet[1]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="21736050"/>
+          <a:ext cx="0" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線矢印コネクタ 157"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="21736050"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16105,9 +16920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:N12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -16264,16 +17077,16 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="39"/>
@@ -16284,14 +17097,14 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39"/>
@@ -16302,12 +17115,12 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="54"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="39"/>
@@ -16318,12 +17131,12 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="39"/>
@@ -16334,12 +17147,12 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="54"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="39"/>
@@ -16350,12 +17163,12 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="51"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="39"/>
@@ -16366,12 +17179,12 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="54"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39"/>
@@ -16382,12 +17195,12 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39"/>
@@ -16398,12 +17211,12 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="54"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="39"/>
@@ -16416,12 +17229,12 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="50"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="39"/>
@@ -16434,154 +17247,154 @@
       <c r="D20" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="54"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="42">
         <v>43181</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="48"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="50"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="49"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="54"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="48"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="50"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="54"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="50"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="54"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="51"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="39"/>
@@ -16592,12 +17405,12 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="50"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="N29" s="51"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="39"/>
@@ -16608,12 +17421,12 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="54"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -16657,7 +17470,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16680,7 +17493,7 @@
   <dimension ref="B7:G128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17166,7 +17979,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17256,7 +18069,7 @@
   <dimension ref="B7:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17392,7 +18205,7 @@
   <dimension ref="B2:W212"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19153,36 +19966,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:T195"/>
+  <dimension ref="B3:V215"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:19" ht="19.5" thickBot="1">
-      <c r="B3" s="59" t="str">
+    <row r="3" spans="2:22" ht="19.5" thickBot="1">
+      <c r="B3" s="60" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
         <v>新規作成</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="60" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="61" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="6" spans="2:19" ht="17.25">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25">
       <c r="B6" s="36" t="s">
         <v>498</v>
       </c>
@@ -19203,33 +20016,36 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+    </row>
+    <row r="7" spans="2:22">
       <c r="C7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:22">
       <c r="C8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:22">
       <c r="C9" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:22">
       <c r="C11" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:22">
       <c r="C12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="17.25">
+    <row r="14" spans="2:22" ht="17.25">
       <c r="B14" s="36" t="s">
         <v>476</v>
       </c>
@@ -19250,13 +20066,16 @@
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+    </row>
+    <row r="15" spans="2:22">
       <c r="C15" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:22">
       <c r="D16" s="32" t="s">
         <v>480</v>
       </c>
@@ -19307,13 +20126,13 @@
     <row r="64" spans="3:3">
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="2:22">
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="2:20">
+    <row r="66" spans="2:22">
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="2:20" ht="17.25">
+    <row r="67" spans="2:22" ht="17.25">
       <c r="B67" s="35" t="s">
         <v>535</v>
       </c>
@@ -19335,21 +20154,23 @@
       <c r="R67" s="34"/>
       <c r="S67" s="34"/>
       <c r="T67" s="34"/>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+    </row>
+    <row r="68" spans="2:22">
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="69" spans="2:20">
+    <row r="69" spans="2:22">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="70" spans="2:20">
+    <row r="70" spans="2:22">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="E70" t="s">
@@ -19359,7 +20180,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:22">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="E71" t="s">
@@ -19369,7 +20190,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:22">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="E72" t="s">
@@ -19379,31 +20200,31 @@
         <v>531</v>
       </c>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:22">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:22">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:22">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:20">
+    <row r="76" spans="2:22">
       <c r="C76" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:22">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:22">
       <c r="C78" s="3"/>
     </row>
-    <row r="100" spans="4:15">
-      <c r="D100" s="3" t="s">
+    <row r="99" spans="4:15">
+      <c r="D99" s="3" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19412,556 +20233,150 @@
       <c r="K104" s="37"/>
       <c r="O104" s="37"/>
     </row>
-    <row r="119" spans="2:20" ht="17.25">
-      <c r="B119" s="35" t="s">
+    <row r="139" spans="2:22" ht="17.25">
+      <c r="B139" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
-    </row>
-    <row r="121" spans="2:20">
-      <c r="C121" s="3" t="s">
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="34"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="34"/>
+    </row>
+    <row r="141" spans="2:22">
+      <c r="C141" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="2:20">
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="2:20">
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="2:20">
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="2:20">
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="2:20">
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="2:20">
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="2:20">
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="3:3">
-      <c r="C135" s="3"/>
-    </row>
-    <row r="165" spans="3:16">
-      <c r="C165" s="3" t="s">
+    <row r="142" spans="2:22">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="2:22">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:22">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="185" spans="3:16">
+      <c r="C185" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="166" spans="3:16">
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="3:16">
-      <c r="C167" s="64" t="s">
+    <row r="186" spans="3:16">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:16">
+      <c r="C187" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="64" t="s">
+      <c r="D187" s="58"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64" t="s">
+      <c r="G187" s="58"/>
+      <c r="H187" s="58" t="s">
         <v>522</v>
       </c>
-      <c r="I167" s="64"/>
-      <c r="J167" s="64" t="s">
+      <c r="I187" s="58"/>
+      <c r="J187" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="K167" s="64"/>
-      <c r="L167" s="64"/>
-      <c r="M167" s="64"/>
-      <c r="N167" s="64"/>
-      <c r="O167" s="64"/>
-      <c r="P167" s="64"/>
-    </row>
-    <row r="168" spans="3:16">
-      <c r="C168" s="57" t="s">
+      <c r="K187" s="58"/>
+      <c r="L187" s="58"/>
+      <c r="M187" s="58"/>
+      <c r="N187" s="58"/>
+      <c r="O187" s="58"/>
+      <c r="P187" s="58"/>
+    </row>
+    <row r="188" spans="3:16">
+      <c r="C188" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="D168" s="57"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57" t="s">
+      <c r="D188" s="57"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="G168" s="57"/>
-      <c r="H168" s="57" t="s">
+      <c r="G188" s="57"/>
+      <c r="H188" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="I168" s="57"/>
-      <c r="J168" s="57" t="s">
+      <c r="I188" s="57"/>
+      <c r="J188" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="K168" s="57"/>
-      <c r="L168" s="57"/>
-      <c r="M168" s="57"/>
-      <c r="N168" s="57"/>
-      <c r="O168" s="57"/>
-      <c r="P168" s="57"/>
-    </row>
-    <row r="169" spans="3:16">
-      <c r="C169" s="57" t="s">
+      <c r="K188" s="57"/>
+      <c r="L188" s="57"/>
+      <c r="M188" s="57"/>
+      <c r="N188" s="57"/>
+      <c r="O188" s="57"/>
+      <c r="P188" s="57"/>
+    </row>
+    <row r="189" spans="3:16">
+      <c r="C189" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="D169" s="57"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="57" t="s">
+      <c r="D189" s="57"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57" t="s">
         <v>539</v>
-      </c>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I169" s="57"/>
-      <c r="J169" s="57" t="s">
-        <v>541</v>
-      </c>
-      <c r="K169" s="57"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="57"/>
-      <c r="N169" s="57"/>
-      <c r="O169" s="57"/>
-      <c r="P169" s="57"/>
-    </row>
-    <row r="170" spans="3:16">
-      <c r="C170" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="D170" s="57"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I170" s="57"/>
-      <c r="J170" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="K170" s="57"/>
-      <c r="L170" s="57"/>
-      <c r="M170" s="57"/>
-      <c r="N170" s="57"/>
-      <c r="O170" s="57"/>
-      <c r="P170" s="57"/>
-    </row>
-    <row r="171" spans="3:16">
-      <c r="C171" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="D171" s="57"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57" t="s">
-        <v>547</v>
-      </c>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I171" s="57"/>
-      <c r="J171" s="57" t="s">
-        <v>546</v>
-      </c>
-      <c r="K171" s="57"/>
-      <c r="L171" s="57"/>
-      <c r="M171" s="57"/>
-      <c r="N171" s="57"/>
-      <c r="O171" s="57"/>
-      <c r="P171" s="57"/>
-    </row>
-    <row r="172" spans="3:16">
-      <c r="C172" s="57" t="s">
-        <v>550</v>
-      </c>
-      <c r="D172" s="57"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="I172" s="57"/>
-      <c r="J172" s="57" t="s">
-        <v>549</v>
-      </c>
-      <c r="K172" s="57"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="57"/>
-      <c r="N172" s="57"/>
-      <c r="O172" s="57"/>
-      <c r="P172" s="57"/>
-    </row>
-    <row r="173" spans="3:16">
-      <c r="C173" s="57" t="s">
-        <v>551</v>
-      </c>
-      <c r="D173" s="57"/>
-      <c r="E173" s="57"/>
-      <c r="F173" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="G173" s="57"/>
-      <c r="H173" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I173" s="57"/>
-      <c r="J173" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="K173" s="57"/>
-      <c r="L173" s="57"/>
-      <c r="M173" s="57"/>
-      <c r="N173" s="57"/>
-      <c r="O173" s="57"/>
-      <c r="P173" s="57"/>
-    </row>
-    <row r="174" spans="3:16">
-      <c r="C174" s="57" t="s">
-        <v>552</v>
-      </c>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="G174" s="57"/>
-      <c r="H174" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I174" s="57"/>
-      <c r="J174" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="K174" s="57"/>
-      <c r="L174" s="57"/>
-      <c r="M174" s="57"/>
-      <c r="N174" s="57"/>
-      <c r="O174" s="57"/>
-      <c r="P174" s="57"/>
-    </row>
-    <row r="175" spans="3:16">
-      <c r="C175" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="I175" s="57"/>
-      <c r="J175" s="57" t="s">
-        <v>556</v>
-      </c>
-      <c r="K175" s="57"/>
-      <c r="L175" s="57"/>
-      <c r="M175" s="57"/>
-      <c r="N175" s="57"/>
-      <c r="O175" s="57"/>
-      <c r="P175" s="57"/>
-    </row>
-    <row r="177" spans="2:20">
-      <c r="C177" s="64" t="s">
-        <v>505</v>
-      </c>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="I177" s="64"/>
-      <c r="J177" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="K177" s="64"/>
-      <c r="L177" s="64"/>
-      <c r="M177" s="64"/>
-      <c r="N177" s="64"/>
-      <c r="O177" s="64"/>
-      <c r="P177" s="64"/>
-    </row>
-    <row r="178" spans="2:20">
-      <c r="C178" s="57" t="s">
-        <v>506</v>
-      </c>
-      <c r="D178" s="57"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57" t="s">
-        <v>506</v>
-      </c>
-      <c r="G178" s="57"/>
-      <c r="H178" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I178" s="57"/>
-      <c r="J178" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="K178" s="57"/>
-      <c r="L178" s="57"/>
-      <c r="M178" s="57"/>
-      <c r="N178" s="57"/>
-      <c r="O178" s="57"/>
-      <c r="P178" s="57"/>
-    </row>
-    <row r="179" spans="2:20">
-      <c r="C179" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="D179" s="57"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="G179" s="57"/>
-      <c r="H179" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I179" s="57"/>
-      <c r="J179" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="K179" s="57"/>
-      <c r="L179" s="57"/>
-      <c r="M179" s="57"/>
-      <c r="N179" s="57"/>
-      <c r="O179" s="57"/>
-      <c r="P179" s="57"/>
-    </row>
-    <row r="181" spans="2:20">
-      <c r="C181" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
-      <c r="F181" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="I181" s="64"/>
-      <c r="J181" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="K181" s="64"/>
-      <c r="L181" s="64"/>
-      <c r="M181" s="64"/>
-      <c r="N181" s="64"/>
-      <c r="O181" s="64"/>
-      <c r="P181" s="64"/>
-    </row>
-    <row r="182" spans="2:20">
-      <c r="C182" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57" t="s">
-        <v>520</v>
-      </c>
-      <c r="I182" s="57"/>
-      <c r="J182" s="58" t="s">
-        <v>529</v>
-      </c>
-      <c r="K182" s="58"/>
-      <c r="L182" s="58"/>
-      <c r="M182" s="58"/>
-      <c r="N182" s="58"/>
-      <c r="O182" s="58"/>
-      <c r="P182" s="58"/>
-    </row>
-    <row r="183" spans="2:20">
-      <c r="C183" s="57" t="s">
-        <v>519</v>
-      </c>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57" t="s">
-        <v>520</v>
-      </c>
-      <c r="I183" s="57"/>
-      <c r="J183" s="58" t="s">
-        <v>530</v>
-      </c>
-      <c r="K183" s="58"/>
-      <c r="L183" s="58"/>
-      <c r="M183" s="58"/>
-      <c r="N183" s="58"/>
-      <c r="O183" s="58"/>
-      <c r="P183" s="58"/>
-    </row>
-    <row r="184" spans="2:20">
-      <c r="C184" s="57" t="s">
-        <v>511</v>
-      </c>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="G184" s="57"/>
-      <c r="H184" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I184" s="57"/>
-      <c r="J184" s="58" t="s">
-        <v>512</v>
-      </c>
-      <c r="K184" s="58"/>
-      <c r="L184" s="58"/>
-      <c r="M184" s="58"/>
-      <c r="N184" s="58"/>
-      <c r="O184" s="58"/>
-      <c r="P184" s="58"/>
-    </row>
-    <row r="185" spans="2:20">
-      <c r="C185" s="57" t="s">
-        <v>523</v>
-      </c>
-      <c r="D185" s="57"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="G185" s="57"/>
-      <c r="H185" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I185" s="57"/>
-      <c r="J185" s="58" t="s">
-        <v>513</v>
-      </c>
-      <c r="K185" s="58"/>
-      <c r="L185" s="58"/>
-      <c r="M185" s="58"/>
-      <c r="N185" s="58"/>
-      <c r="O185" s="58"/>
-      <c r="P185" s="58"/>
-    </row>
-    <row r="186" spans="2:20">
-      <c r="C186" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="D186" s="57"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="G186" s="57"/>
-      <c r="H186" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I186" s="57"/>
-      <c r="J186" s="58" t="s">
-        <v>515</v>
-      </c>
-      <c r="K186" s="58"/>
-      <c r="L186" s="58"/>
-      <c r="M186" s="58"/>
-      <c r="N186" s="58"/>
-      <c r="O186" s="58"/>
-      <c r="P186" s="58"/>
-    </row>
-    <row r="188" spans="2:20">
-      <c r="C188" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="G188" s="64"/>
-      <c r="H188" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="I188" s="64"/>
-      <c r="J188" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="K188" s="64"/>
-      <c r="L188" s="64"/>
-      <c r="M188" s="64"/>
-      <c r="N188" s="64"/>
-      <c r="O188" s="64"/>
-      <c r="P188" s="64"/>
-    </row>
-    <row r="189" spans="2:20">
-      <c r="C189" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="D189" s="63"/>
-      <c r="E189" s="62"/>
-      <c r="F189" s="57" t="s">
-        <v>517</v>
       </c>
       <c r="G189" s="57"/>
       <c r="H189" s="57" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="I189" s="57"/>
       <c r="J189" s="57" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="K189" s="57"/>
       <c r="L189" s="57"/>
@@ -19970,127 +20385,537 @@
       <c r="O189" s="57"/>
       <c r="P189" s="57"/>
     </row>
-    <row r="192" spans="2:20" ht="17.25">
-      <c r="B192" s="35" t="s">
+    <row r="190" spans="3:16">
+      <c r="C190" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="D190" s="57"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I190" s="57"/>
+      <c r="J190" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="K190" s="57"/>
+      <c r="L190" s="57"/>
+      <c r="M190" s="57"/>
+      <c r="N190" s="57"/>
+      <c r="O190" s="57"/>
+      <c r="P190" s="57"/>
+    </row>
+    <row r="191" spans="3:16">
+      <c r="C191" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="D191" s="57"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="K191" s="57"/>
+      <c r="L191" s="57"/>
+      <c r="M191" s="57"/>
+      <c r="N191" s="57"/>
+      <c r="O191" s="57"/>
+      <c r="P191" s="57"/>
+    </row>
+    <row r="192" spans="3:16">
+      <c r="C192" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="D192" s="57"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57" t="s">
+        <v>549</v>
+      </c>
+      <c r="K192" s="57"/>
+      <c r="L192" s="57"/>
+      <c r="M192" s="57"/>
+      <c r="N192" s="57"/>
+      <c r="O192" s="57"/>
+      <c r="P192" s="57"/>
+    </row>
+    <row r="193" spans="3:16">
+      <c r="C193" s="57" t="s">
+        <v>551</v>
+      </c>
+      <c r="D193" s="57"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="K193" s="57"/>
+      <c r="L193" s="57"/>
+      <c r="M193" s="57"/>
+      <c r="N193" s="57"/>
+      <c r="O193" s="57"/>
+      <c r="P193" s="57"/>
+    </row>
+    <row r="194" spans="3:16">
+      <c r="C194" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="D194" s="57"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
+      <c r="O194" s="57"/>
+      <c r="P194" s="57"/>
+    </row>
+    <row r="195" spans="3:16">
+      <c r="C195" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="D195" s="57"/>
+      <c r="E195" s="57"/>
+      <c r="F195" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="K195" s="57"/>
+      <c r="L195" s="57"/>
+      <c r="M195" s="57"/>
+      <c r="N195" s="57"/>
+      <c r="O195" s="57"/>
+      <c r="P195" s="57"/>
+    </row>
+    <row r="197" spans="3:16">
+      <c r="C197" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="I197" s="58"/>
+      <c r="J197" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="K197" s="58"/>
+      <c r="L197" s="58"/>
+      <c r="M197" s="58"/>
+      <c r="N197" s="58"/>
+      <c r="O197" s="58"/>
+      <c r="P197" s="58"/>
+    </row>
+    <row r="198" spans="3:16">
+      <c r="C198" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="D198" s="57"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I198" s="57"/>
+      <c r="J198" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="K198" s="57"/>
+      <c r="L198" s="57"/>
+      <c r="M198" s="57"/>
+      <c r="N198" s="57"/>
+      <c r="O198" s="57"/>
+      <c r="P198" s="57"/>
+    </row>
+    <row r="199" spans="3:16">
+      <c r="C199" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="D199" s="57"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="K199" s="57"/>
+      <c r="L199" s="57"/>
+      <c r="M199" s="57"/>
+      <c r="N199" s="57"/>
+      <c r="O199" s="57"/>
+      <c r="P199" s="57"/>
+    </row>
+    <row r="201" spans="3:16">
+      <c r="C201" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G201" s="58"/>
+      <c r="H201" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="I201" s="58"/>
+      <c r="J201" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="K201" s="58"/>
+      <c r="L201" s="58"/>
+      <c r="M201" s="58"/>
+      <c r="N201" s="58"/>
+      <c r="O201" s="58"/>
+      <c r="P201" s="58"/>
+    </row>
+    <row r="202" spans="3:16">
+      <c r="C202" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="I202" s="57"/>
+      <c r="J202" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="K202" s="59"/>
+      <c r="L202" s="59"/>
+      <c r="M202" s="59"/>
+      <c r="N202" s="59"/>
+      <c r="O202" s="59"/>
+      <c r="P202" s="59"/>
+    </row>
+    <row r="203" spans="3:16">
+      <c r="C203" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="D203" s="57"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="I203" s="57"/>
+      <c r="J203" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="K203" s="59"/>
+      <c r="L203" s="59"/>
+      <c r="M203" s="59"/>
+      <c r="N203" s="59"/>
+      <c r="O203" s="59"/>
+      <c r="P203" s="59"/>
+    </row>
+    <row r="204" spans="3:16">
+      <c r="C204" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D204" s="57"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I204" s="57"/>
+      <c r="J204" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="K204" s="59"/>
+      <c r="L204" s="59"/>
+      <c r="M204" s="59"/>
+      <c r="N204" s="59"/>
+      <c r="O204" s="59"/>
+      <c r="P204" s="59"/>
+    </row>
+    <row r="205" spans="3:16">
+      <c r="C205" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="D205" s="57"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I205" s="57"/>
+      <c r="J205" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="K205" s="59"/>
+      <c r="L205" s="59"/>
+      <c r="M205" s="59"/>
+      <c r="N205" s="59"/>
+      <c r="O205" s="59"/>
+      <c r="P205" s="59"/>
+    </row>
+    <row r="206" spans="3:16">
+      <c r="C206" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="D206" s="57"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I206" s="57"/>
+      <c r="J206" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K206" s="59"/>
+      <c r="L206" s="59"/>
+      <c r="M206" s="59"/>
+      <c r="N206" s="59"/>
+      <c r="O206" s="59"/>
+      <c r="P206" s="59"/>
+    </row>
+    <row r="208" spans="3:16">
+      <c r="C208" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="K208" s="58"/>
+      <c r="L208" s="58"/>
+      <c r="M208" s="58"/>
+      <c r="N208" s="58"/>
+      <c r="O208" s="58"/>
+      <c r="P208" s="58"/>
+    </row>
+    <row r="209" spans="2:22">
+      <c r="C209" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="D209" s="63"/>
+      <c r="E209" s="64"/>
+      <c r="F209" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="K209" s="57"/>
+      <c r="L209" s="57"/>
+      <c r="M209" s="57"/>
+      <c r="N209" s="57"/>
+      <c r="O209" s="57"/>
+      <c r="P209" s="57"/>
+    </row>
+    <row r="212" spans="2:22" ht="17.25">
+      <c r="B212" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="C192" s="33"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="34"/>
-      <c r="L192" s="34"/>
-      <c r="M192" s="34"/>
-      <c r="N192" s="34"/>
-      <c r="O192" s="34"/>
-      <c r="P192" s="34"/>
-      <c r="Q192" s="34"/>
-      <c r="R192" s="34"/>
-      <c r="S192" s="34"/>
-      <c r="T192" s="34"/>
-    </row>
-    <row r="194" spans="3:3">
-      <c r="C194" t="s">
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="34"/>
+      <c r="I212" s="34"/>
+      <c r="J212" s="34"/>
+      <c r="K212" s="34"/>
+      <c r="L212" s="34"/>
+      <c r="M212" s="34"/>
+      <c r="N212" s="34"/>
+      <c r="O212" s="34"/>
+      <c r="P212" s="34"/>
+      <c r="Q212" s="34"/>
+      <c r="R212" s="34"/>
+      <c r="S212" s="34"/>
+      <c r="T212" s="34"/>
+      <c r="U212" s="34"/>
+      <c r="V212" s="34"/>
+    </row>
+    <row r="214" spans="2:22">
+      <c r="C214" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
-      <c r="C195" s="9" t="s">
+    <row r="215" spans="2:22">
+      <c r="C215" s="9" t="s">
         <v>472</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:P175"/>
-    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:P195"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="J201:P201"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C193:E193"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="J191:P191"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:P194"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:P190"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:P192"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:P188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="J189:P189"/>
+    <mergeCell ref="C188:E188"/>
     <mergeCell ref="C189:E189"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:P171"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:P174"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:P173"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:P170"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="J172:P172"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="J168:P168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:P169"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="J188:P188"/>
-    <mergeCell ref="J189:P189"/>
+    <mergeCell ref="J208:P208"/>
+    <mergeCell ref="J209:P209"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J167:P167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="J183:P183"/>
-    <mergeCell ref="J178:P178"/>
-    <mergeCell ref="J179:P179"/>
-    <mergeCell ref="J184:P184"/>
-    <mergeCell ref="J185:P185"/>
-    <mergeCell ref="J186:P186"/>
-    <mergeCell ref="J181:P181"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="J182:P182"/>
-    <mergeCell ref="J177:P177"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:P187"/>
     <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="J203:P203"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="J199:P199"/>
+    <mergeCell ref="J204:P204"/>
+    <mergeCell ref="J205:P205"/>
+    <mergeCell ref="J206:P206"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="J202:P202"/>
+    <mergeCell ref="J197:P197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:I202"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="C195" r:id="rId1"/>
+    <hyperlink ref="C215" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -20102,7 +20927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -20631,7 +21456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -20684,7 +21509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -21234,7 +22059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AZ139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -21623,7 +22448,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21690,7 +22515,7 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21791,7 +22616,7 @@
   <dimension ref="C1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/設計書_ruby.xlsx
+++ b/設計書_ruby.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="14" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="作例" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="Link一覧" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="Ruby" sheetId="10" state="hidden" r:id="rId14"/>
+    <sheet name="結果" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="579">
   <si>
     <t>struct</t>
     <phoneticPr fontId="1"/>
@@ -3604,6 +3605,164 @@
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>設計内容</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【詳細】</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiplicationTable.xlsx</t>
+  </si>
+  <si>
+    <t>result -&gt; MultiplicationTable.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiplicationTable.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultiplicationTable.txt …　末尾の"0"改行コードになるため削除したい。改行処理は対応する時間がなかったため、現状となる。</t>
+    <rPh sb="26" eb="27">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムの結果</t>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExecutionCmd.rb</t>
+  </si>
+  <si>
+    <t>ExecutionCreateExcel.rb</t>
+  </si>
+  <si>
+    <t>CreateExcelModule.rb</t>
+  </si>
+  <si>
+    <t>CreateExcelClass.rb</t>
+  </si>
+  <si>
+    <t>手順.</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateExcelObject.bat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　1.CreateExcelObject.bat を実行する</t>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ruby環境変数path に以下のファイルを格納しておく</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果.</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 以下のファイルを生成する</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4178,7 +4337,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4206,20 +4364,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4229,6 +4376,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4466,6 +4625,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="6858000"/>
+          <a:ext cx="8496300" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="9772650"/>
+          <a:ext cx="4257675" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8549,7 +8807,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>readExcelWprkbook()</a:t>
+            <a:t>readExcelWorkbook()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -16920,7 +17178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -17077,16 +17337,16 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="39"/>
@@ -17097,14 +17357,16 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="49"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39"/>
@@ -17115,12 +17377,12 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="51"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="39"/>
@@ -17131,12 +17393,16 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="49"/>
+      <c r="I13" s="47" t="s">
+        <v>566</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="39"/>
@@ -17147,12 +17413,12 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="51"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="39"/>
@@ -17163,12 +17429,12 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="49"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="39"/>
@@ -17179,12 +17445,12 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="51"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39"/>
@@ -17195,12 +17461,12 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39"/>
@@ -17211,12 +17477,12 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="39"/>
@@ -17229,12 +17495,12 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="49"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="39"/>
@@ -17247,18 +17513,18 @@
       <c r="D20" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
@@ -17271,34 +17537,42 @@
       <c r="D21" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="49"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="B22" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="42">
+        <v>43185</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39"/>
@@ -17309,12 +17583,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="49"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="39"/>
@@ -17325,12 +17599,12 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="51"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="39"/>
@@ -17341,12 +17615,12 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="49"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="39"/>
@@ -17357,28 +17631,28 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="39"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
       <c r="D27" s="43"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="49"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="39"/>
@@ -17389,12 +17663,12 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="51"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="39"/>
@@ -17405,12 +17679,12 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="49"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="39"/>
@@ -17421,22 +17695,27 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="51"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:N30"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:N20"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="I27:J28"/>
     <mergeCell ref="K27:N28"/>
@@ -17446,22 +17725,18 @@
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:N18"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:N12"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:N30"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:N26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19964,36 +20239,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:V215"/>
+  <dimension ref="B3:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="62" t="str">
         <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
-        <v>新規作成</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+        <v>結果</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
       <c r="B6" s="36" t="s">
@@ -20020,6 +20295,207 @@
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
     </row>
+    <row r="8" spans="2:22">
+      <c r="C8" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="D10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="D11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="D12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="D13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="D14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="C17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="C19" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="C20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="D21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="D22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E22" t="s">
+        <v>526</v>
+      </c>
+      <c r="H22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>527</v>
+      </c>
+      <c r="H23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>562</v>
+      </c>
+      <c r="H24" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="17.25">
+      <c r="B26" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="C28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="C32" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:V215"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188:E192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:22" ht="19.5" thickBot="1">
+      <c r="B3" s="62" t="str">
+        <f ca="1">MID(CELL("filename",$A$1),FIND("]",CELL("filename",$A$1))+1,31)</f>
+        <v>新規作成</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25">
+      <c r="B6" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+    </row>
     <row r="7" spans="2:22">
       <c r="C7" t="s">
         <v>499</v>
@@ -20314,28 +20790,28 @@
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="3:16">
-      <c r="C187" s="58" t="s">
+      <c r="C187" s="61" t="s">
         <v>537</v>
       </c>
-      <c r="D187" s="58"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="58" t="s">
+      <c r="D187" s="61"/>
+      <c r="E187" s="61"/>
+      <c r="F187" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="G187" s="58"/>
-      <c r="H187" s="58" t="s">
+      <c r="G187" s="61"/>
+      <c r="H187" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="I187" s="58"/>
-      <c r="J187" s="58" t="s">
+      <c r="I187" s="61"/>
+      <c r="J187" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="K187" s="58"/>
-      <c r="L187" s="58"/>
-      <c r="M187" s="58"/>
-      <c r="N187" s="58"/>
-      <c r="O187" s="58"/>
-      <c r="P187" s="58"/>
+      <c r="K187" s="61"/>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
+      <c r="N187" s="61"/>
+      <c r="O187" s="61"/>
+      <c r="P187" s="61"/>
     </row>
     <row r="188" spans="3:16">
       <c r="C188" s="57" t="s">
@@ -20530,28 +21006,28 @@
       <c r="P195" s="57"/>
     </row>
     <row r="197" spans="3:16">
-      <c r="C197" s="58" t="s">
+      <c r="C197" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58" t="s">
+      <c r="D197" s="61"/>
+      <c r="E197" s="61"/>
+      <c r="F197" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58" t="s">
+      <c r="G197" s="61"/>
+      <c r="H197" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58" t="s">
+      <c r="I197" s="61"/>
+      <c r="J197" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="K197" s="58"/>
-      <c r="L197" s="58"/>
-      <c r="M197" s="58"/>
-      <c r="N197" s="58"/>
-      <c r="O197" s="58"/>
-      <c r="P197" s="58"/>
+      <c r="K197" s="61"/>
+      <c r="L197" s="61"/>
+      <c r="M197" s="61"/>
+      <c r="N197" s="61"/>
+      <c r="O197" s="61"/>
+      <c r="P197" s="61"/>
     </row>
     <row r="198" spans="3:16">
       <c r="C198" s="57" t="s">
@@ -20602,28 +21078,28 @@
       <c r="P199" s="57"/>
     </row>
     <row r="201" spans="3:16">
-      <c r="C201" s="58" t="s">
+      <c r="C201" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="D201" s="58"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="58" t="s">
+      <c r="D201" s="61"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="G201" s="58"/>
-      <c r="H201" s="58" t="s">
+      <c r="G201" s="61"/>
+      <c r="H201" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="I201" s="58"/>
-      <c r="J201" s="58" t="s">
+      <c r="I201" s="61"/>
+      <c r="J201" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="K201" s="58"/>
-      <c r="L201" s="58"/>
-      <c r="M201" s="58"/>
-      <c r="N201" s="58"/>
-      <c r="O201" s="58"/>
-      <c r="P201" s="58"/>
+      <c r="K201" s="61"/>
+      <c r="L201" s="61"/>
+      <c r="M201" s="61"/>
+      <c r="N201" s="61"/>
+      <c r="O201" s="61"/>
+      <c r="P201" s="61"/>
     </row>
     <row r="202" spans="3:16">
       <c r="C202" s="57" t="s">
@@ -20639,15 +21115,15 @@
         <v>520</v>
       </c>
       <c r="I202" s="57"/>
-      <c r="J202" s="59" t="s">
+      <c r="J202" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="K202" s="59"/>
-      <c r="L202" s="59"/>
-      <c r="M202" s="59"/>
-      <c r="N202" s="59"/>
-      <c r="O202" s="59"/>
-      <c r="P202" s="59"/>
+      <c r="K202" s="64"/>
+      <c r="L202" s="64"/>
+      <c r="M202" s="64"/>
+      <c r="N202" s="64"/>
+      <c r="O202" s="64"/>
+      <c r="P202" s="64"/>
     </row>
     <row r="203" spans="3:16">
       <c r="C203" s="57" t="s">
@@ -20663,15 +21139,15 @@
         <v>520</v>
       </c>
       <c r="I203" s="57"/>
-      <c r="J203" s="59" t="s">
+      <c r="J203" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="K203" s="59"/>
-      <c r="L203" s="59"/>
-      <c r="M203" s="59"/>
-      <c r="N203" s="59"/>
-      <c r="O203" s="59"/>
-      <c r="P203" s="59"/>
+      <c r="K203" s="64"/>
+      <c r="L203" s="64"/>
+      <c r="M203" s="64"/>
+      <c r="N203" s="64"/>
+      <c r="O203" s="64"/>
+      <c r="P203" s="64"/>
     </row>
     <row r="204" spans="3:16">
       <c r="C204" s="57" t="s">
@@ -20687,15 +21163,15 @@
         <v>517</v>
       </c>
       <c r="I204" s="57"/>
-      <c r="J204" s="59" t="s">
+      <c r="J204" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="K204" s="59"/>
-      <c r="L204" s="59"/>
-      <c r="M204" s="59"/>
-      <c r="N204" s="59"/>
-      <c r="O204" s="59"/>
-      <c r="P204" s="59"/>
+      <c r="K204" s="64"/>
+      <c r="L204" s="64"/>
+      <c r="M204" s="64"/>
+      <c r="N204" s="64"/>
+      <c r="O204" s="64"/>
+      <c r="P204" s="64"/>
     </row>
     <row r="205" spans="3:16">
       <c r="C205" s="57" t="s">
@@ -20711,15 +21187,15 @@
         <v>517</v>
       </c>
       <c r="I205" s="57"/>
-      <c r="J205" s="59" t="s">
+      <c r="J205" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="K205" s="59"/>
-      <c r="L205" s="59"/>
-      <c r="M205" s="59"/>
-      <c r="N205" s="59"/>
-      <c r="O205" s="59"/>
-      <c r="P205" s="59"/>
+      <c r="K205" s="64"/>
+      <c r="L205" s="64"/>
+      <c r="M205" s="64"/>
+      <c r="N205" s="64"/>
+      <c r="O205" s="64"/>
+      <c r="P205" s="64"/>
     </row>
     <row r="206" spans="3:16">
       <c r="C206" s="57" t="s">
@@ -20735,46 +21211,46 @@
         <v>517</v>
       </c>
       <c r="I206" s="57"/>
-      <c r="J206" s="59" t="s">
+      <c r="J206" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="K206" s="59"/>
-      <c r="L206" s="59"/>
-      <c r="M206" s="59"/>
-      <c r="N206" s="59"/>
-      <c r="O206" s="59"/>
-      <c r="P206" s="59"/>
+      <c r="K206" s="64"/>
+      <c r="L206" s="64"/>
+      <c r="M206" s="64"/>
+      <c r="N206" s="64"/>
+      <c r="O206" s="64"/>
+      <c r="P206" s="64"/>
     </row>
     <row r="208" spans="3:16">
-      <c r="C208" s="58" t="s">
+      <c r="C208" s="61" t="s">
         <v>521</v>
       </c>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58" t="s">
+      <c r="D208" s="61"/>
+      <c r="E208" s="61"/>
+      <c r="F208" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58" t="s">
+      <c r="G208" s="61"/>
+      <c r="H208" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58" t="s">
+      <c r="I208" s="61"/>
+      <c r="J208" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="K208" s="58"/>
-      <c r="L208" s="58"/>
-      <c r="M208" s="58"/>
-      <c r="N208" s="58"/>
-      <c r="O208" s="58"/>
-      <c r="P208" s="58"/>
+      <c r="K208" s="61"/>
+      <c r="L208" s="61"/>
+      <c r="M208" s="61"/>
+      <c r="N208" s="61"/>
+      <c r="O208" s="61"/>
+      <c r="P208" s="61"/>
     </row>
     <row r="209" spans="2:22">
-      <c r="C209" s="62" t="s">
+      <c r="C209" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="D209" s="63"/>
-      <c r="E209" s="64"/>
+      <c r="D209" s="59"/>
+      <c r="E209" s="60"/>
       <c r="F209" s="57" t="s">
         <v>517</v>
       </c>
@@ -20830,6 +21306,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="J202:P202"/>
+    <mergeCell ref="J197:P197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="J208:P208"/>
+    <mergeCell ref="J209:P209"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:P187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="J203:P203"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="J199:P199"/>
+    <mergeCell ref="J204:P204"/>
+    <mergeCell ref="J205:P205"/>
+    <mergeCell ref="J206:P206"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:P188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="J189:P189"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="J191:P191"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:P194"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:P190"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:P192"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C193:E193"/>
+    <mergeCell ref="C194:E194"/>
     <mergeCell ref="F195:G195"/>
     <mergeCell ref="H195:I195"/>
     <mergeCell ref="J195:P195"/>
@@ -20846,72 +21388,6 @@
     <mergeCell ref="C204:E204"/>
     <mergeCell ref="C205:E205"/>
     <mergeCell ref="J201:P201"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="C193:E193"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="J191:P191"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="J194:P194"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J193:P193"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:P190"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="J192:P192"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:P188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="J189:P189"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="J208:P208"/>
-    <mergeCell ref="J209:P209"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:P187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="J203:P203"/>
-    <mergeCell ref="J198:P198"/>
-    <mergeCell ref="J199:P199"/>
-    <mergeCell ref="J204:P204"/>
-    <mergeCell ref="J205:P205"/>
-    <mergeCell ref="J206:P206"/>
-    <mergeCell ref="F197:G197"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="J202:P202"/>
-    <mergeCell ref="J197:P197"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:I202"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
